--- a/Preprocessing/gcm10.xlsx
+++ b/Preprocessing/gcm10.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GCParallel\Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5811005E-12E6-4EF8-B23F-F6FC874A90B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC32913-6771-46E3-9AE8-98883FCBF9CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="4065" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gcm10" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,11 +865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,5 +1421,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>